--- a/artfynd/A 33663-2023.xlsx
+++ b/artfynd/A 33663-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112377022</v>
+        <v>112374124</v>
       </c>
       <c r="B2" t="n">
-        <v>89535</v>
+        <v>77651</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,35 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>518111</v>
+        <v>518088</v>
       </c>
       <c r="R2" t="n">
-        <v>7181672</v>
+        <v>7181677</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -754,53 +756,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>Stubbe</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -818,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112375655</v>
+        <v>112374319</v>
       </c>
       <c r="B3" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -861,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>517882</v>
+        <v>518180</v>
       </c>
       <c r="R3" t="n">
-        <v>7182353</v>
+        <v>7181474</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -929,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112374285</v>
+        <v>112375655</v>
       </c>
       <c r="B4" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -972,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>518160</v>
+        <v>517882</v>
       </c>
       <c r="R4" t="n">
-        <v>7181550</v>
+        <v>7182353</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1040,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112374319</v>
+        <v>112374285</v>
       </c>
       <c r="B5" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1083,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518180</v>
+        <v>518160</v>
       </c>
       <c r="R5" t="n">
-        <v>7181474</v>
+        <v>7181550</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1151,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112374124</v>
+        <v>112374196</v>
       </c>
       <c r="B6" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1194,10 +1167,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518088</v>
+        <v>518127</v>
       </c>
       <c r="R6" t="n">
-        <v>7181677</v>
+        <v>7181642</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1262,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112374157</v>
+        <v>112374261</v>
       </c>
       <c r="B7" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1305,10 +1278,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518111</v>
+        <v>518145</v>
       </c>
       <c r="R7" t="n">
-        <v>7181672</v>
+        <v>7181574</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1373,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112374196</v>
+        <v>112374157</v>
       </c>
       <c r="B8" t="n">
-        <v>77637</v>
+        <v>77651</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1416,10 +1389,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518127</v>
+        <v>518111</v>
       </c>
       <c r="R8" t="n">
-        <v>7181642</v>
+        <v>7181672</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1484,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112374261</v>
+        <v>112377022</v>
       </c>
       <c r="B9" t="n">
-        <v>77637</v>
+        <v>89549</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,37 +1473,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518145</v>
+        <v>518111</v>
       </c>
       <c r="R9" t="n">
-        <v>7181574</v>
+        <v>7181672</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1560,24 +1531,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Stubbe</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>

--- a/artfynd/A 33663-2023.xlsx
+++ b/artfynd/A 33663-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112374124</v>
+        <v>112374261</v>
       </c>
       <c r="B2" t="n">
         <v>77651</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>518088</v>
+        <v>518145</v>
       </c>
       <c r="R2" t="n">
-        <v>7181677</v>
+        <v>7181574</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112374319</v>
+        <v>112374196</v>
       </c>
       <c r="B3" t="n">
         <v>77651</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518180</v>
+        <v>518127</v>
       </c>
       <c r="R3" t="n">
-        <v>7181474</v>
+        <v>7181642</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112374285</v>
+        <v>112374157</v>
       </c>
       <c r="B5" t="n">
         <v>77651</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518160</v>
+        <v>518111</v>
       </c>
       <c r="R5" t="n">
-        <v>7181550</v>
+        <v>7181672</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112374196</v>
+        <v>112374319</v>
       </c>
       <c r="B6" t="n">
         <v>77651</v>
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>518127</v>
+        <v>518180</v>
       </c>
       <c r="R6" t="n">
-        <v>7181642</v>
+        <v>7181474</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112374261</v>
+        <v>112374285</v>
       </c>
       <c r="B7" t="n">
         <v>77651</v>
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518145</v>
+        <v>518160</v>
       </c>
       <c r="R7" t="n">
-        <v>7181574</v>
+        <v>7181550</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112374157</v>
+        <v>112377022</v>
       </c>
       <c r="B8" t="n">
-        <v>77651</v>
+        <v>89549</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1362,27 +1362,25 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
@@ -1422,24 +1420,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Stubbe</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1457,10 +1484,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112377022</v>
+        <v>112374124</v>
       </c>
       <c r="B9" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1473,35 +1500,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518111</v>
+        <v>518088</v>
       </c>
       <c r="R9" t="n">
-        <v>7181672</v>
+        <v>7181677</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1531,53 +1560,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Stubbe</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>

--- a/artfynd/A 33663-2023.xlsx
+++ b/artfynd/A 33663-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112374261</v>
+        <v>112374124</v>
       </c>
       <c r="B2" t="n">
         <v>77651</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>518145</v>
+        <v>518088</v>
       </c>
       <c r="R2" t="n">
-        <v>7181574</v>
+        <v>7181677</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112374196</v>
+        <v>112374157</v>
       </c>
       <c r="B3" t="n">
         <v>77651</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>518127</v>
+        <v>518111</v>
       </c>
       <c r="R3" t="n">
-        <v>7181642</v>
+        <v>7181672</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112375655</v>
+        <v>112374285</v>
       </c>
       <c r="B4" t="n">
         <v>77651</v>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>517882</v>
+        <v>518160</v>
       </c>
       <c r="R4" t="n">
-        <v>7182353</v>
+        <v>7181550</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112374157</v>
+        <v>112374261</v>
       </c>
       <c r="B5" t="n">
         <v>77651</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>518111</v>
+        <v>518145</v>
       </c>
       <c r="R5" t="n">
-        <v>7181672</v>
+        <v>7181574</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112374285</v>
+        <v>112375655</v>
       </c>
       <c r="B7" t="n">
         <v>77651</v>
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>518160</v>
+        <v>517882</v>
       </c>
       <c r="R7" t="n">
-        <v>7181550</v>
+        <v>7182353</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112377022</v>
+        <v>112374196</v>
       </c>
       <c r="B8" t="n">
-        <v>89549</v>
+        <v>77651</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1362,35 +1362,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>230405</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav (ssp. sarmentosa)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa subsp. sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>518111</v>
+        <v>518127</v>
       </c>
       <c r="R8" t="n">
-        <v>7181672</v>
+        <v>7181642</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1420,53 +1422,24 @@
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>10:43</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Stubbe</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1484,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112374124</v>
+        <v>112377022</v>
       </c>
       <c r="B9" t="n">
-        <v>77651</v>
+        <v>89549</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1500,37 +1473,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>230405</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav (ssp. sarmentosa)</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa subsp. sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Väster-Rissön, Ås lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>518088</v>
+        <v>518111</v>
       </c>
       <c r="R9" t="n">
-        <v>7181677</v>
+        <v>7181672</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1560,24 +1531,53 @@
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>10:43</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
           <t>Blåbärsblandskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Stubbe</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stump # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
